--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lama2-Itga7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lama2-Itga7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Lama2</t>
+  </si>
+  <si>
+    <t>Itga7</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Lama2</t>
-  </si>
-  <si>
-    <t>Itga7</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.227606333333333</v>
+        <v>5.258836</v>
       </c>
       <c r="H2">
-        <v>3.682818999999999</v>
+        <v>15.776508</v>
       </c>
       <c r="I2">
-        <v>0.01106481154386902</v>
+        <v>0.0979781472915271</v>
       </c>
       <c r="J2">
-        <v>0.01106481154386902</v>
+        <v>0.09797814729152711</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.356035</v>
+        <v>4.851622</v>
       </c>
       <c r="N2">
-        <v>4.068105</v>
+        <v>14.554866</v>
       </c>
       <c r="O2">
-        <v>0.02389128477470859</v>
+        <v>0.1304267807868642</v>
       </c>
       <c r="P2">
-        <v>0.02389128477470859</v>
+        <v>0.1304267807868642</v>
       </c>
       <c r="Q2">
-        <v>1.664677154221667</v>
+        <v>25.513884431992</v>
       </c>
       <c r="R2">
-        <v>14.982094387995</v>
+        <v>229.624959887928</v>
       </c>
       <c r="S2">
-        <v>0.0002643525635730578</v>
+        <v>0.01277897433869509</v>
       </c>
       <c r="T2">
-        <v>0.0002643525635730578</v>
+        <v>0.0127789743386951</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.227606333333333</v>
+        <v>5.258836</v>
       </c>
       <c r="H3">
-        <v>3.682818999999999</v>
+        <v>15.776508</v>
       </c>
       <c r="I3">
-        <v>0.01106481154386902</v>
+        <v>0.0979781472915271</v>
       </c>
       <c r="J3">
-        <v>0.01106481154386902</v>
+        <v>0.09797814729152711</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>6.567596</v>
       </c>
       <c r="O3">
-        <v>0.03857036785462446</v>
+        <v>0.05885251047922296</v>
       </c>
       <c r="P3">
-        <v>0.03857036785462446</v>
+        <v>0.05885251047922296</v>
       </c>
       <c r="Q3">
-        <v>2.687474148124888</v>
+        <v>11.51263675941867</v>
       </c>
       <c r="R3">
-        <v>24.18726733312399</v>
+        <v>103.613730834768</v>
       </c>
       <c r="S3">
-        <v>0.0004267738514891233</v>
+        <v>0.005766259940209449</v>
       </c>
       <c r="T3">
-        <v>0.0004267738514891234</v>
+        <v>0.005766259940209449</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.227606333333333</v>
+        <v>5.258836</v>
       </c>
       <c r="H4">
-        <v>3.682818999999999</v>
+        <v>15.776508</v>
       </c>
       <c r="I4">
-        <v>0.01106481154386902</v>
+        <v>0.0979781472915271</v>
       </c>
       <c r="J4">
-        <v>0.01106481154386902</v>
+        <v>0.09797814729152711</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.022878333333333</v>
+        <v>0.1764276666666667</v>
       </c>
       <c r="N4">
-        <v>3.068635</v>
+        <v>0.5292830000000001</v>
       </c>
       <c r="O4">
-        <v>0.01802156843410824</v>
+        <v>0.004742927747683409</v>
       </c>
       <c r="P4">
-        <v>0.01802156843410824</v>
+        <v>0.004742927747683409</v>
       </c>
       <c r="Q4">
-        <v>1.255691920229444</v>
+        <v>0.9278041648626667</v>
       </c>
       <c r="R4">
-        <v>11.301227282065</v>
+        <v>8.350237483764001</v>
       </c>
       <c r="S4">
-        <v>0.0001994052584483464</v>
+        <v>0.0004647032734555959</v>
       </c>
       <c r="T4">
-        <v>0.0001994052584483464</v>
+        <v>0.000464703273455596</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.227606333333333</v>
+        <v>5.258836</v>
       </c>
       <c r="H5">
-        <v>3.682818999999999</v>
+        <v>15.776508</v>
       </c>
       <c r="I5">
-        <v>0.01106481154386902</v>
+        <v>0.0979781472915271</v>
       </c>
       <c r="J5">
-        <v>0.01106481154386902</v>
+        <v>0.09797814729152711</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>51.07351833333333</v>
+        <v>28.76236666666667</v>
       </c>
       <c r="N5">
-        <v>153.220555</v>
+        <v>86.28710000000001</v>
       </c>
       <c r="O5">
-        <v>0.8998381095974417</v>
+        <v>0.7732224176048222</v>
       </c>
       <c r="P5">
-        <v>0.8998381095974416</v>
+        <v>0.7732224176048221</v>
       </c>
       <c r="Q5">
-        <v>62.6981745716161</v>
+        <v>151.2565692718667</v>
       </c>
       <c r="R5">
-        <v>564.2835711445449</v>
+        <v>1361.3091234468</v>
       </c>
       <c r="S5">
-        <v>0.00995653910268705</v>
+        <v>0.07575889992119594</v>
       </c>
       <c r="T5">
-        <v>0.00995653910268705</v>
+        <v>0.07575889992119594</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.227606333333333</v>
+        <v>5.258836</v>
       </c>
       <c r="H6">
-        <v>3.682818999999999</v>
+        <v>15.776508</v>
       </c>
       <c r="I6">
-        <v>0.01106481154386902</v>
+        <v>0.0979781472915271</v>
       </c>
       <c r="J6">
-        <v>0.01106481154386902</v>
+        <v>0.09797814729152711</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.624846</v>
+        <v>0.8418256666666667</v>
       </c>
       <c r="N6">
-        <v>1.874538</v>
+        <v>2.525477</v>
       </c>
       <c r="O6">
-        <v>0.01100884101541447</v>
+        <v>0.02263090811425316</v>
       </c>
       <c r="P6">
-        <v>0.01100884101541447</v>
+        <v>0.02263090811425315</v>
       </c>
       <c r="Q6">
-        <v>0.7670649069579999</v>
+        <v>4.427023121590667</v>
       </c>
       <c r="R6">
-        <v>6.903584162621999</v>
+        <v>39.843208094316</v>
       </c>
       <c r="S6">
-        <v>0.0001218107511519768</v>
+        <v>0.002217334448559312</v>
       </c>
       <c r="T6">
-        <v>0.0001218107511519768</v>
+        <v>0.002217334448559312</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.227606333333333</v>
+        <v>5.258836</v>
       </c>
       <c r="H7">
-        <v>3.682818999999999</v>
+        <v>15.776508</v>
       </c>
       <c r="I7">
-        <v>0.01106481154386902</v>
+        <v>0.0979781472915271</v>
       </c>
       <c r="J7">
-        <v>0.01106481154386902</v>
+        <v>0.09797814729152711</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.492087</v>
+        <v>0.3766100000000001</v>
       </c>
       <c r="N7">
-        <v>1.476261</v>
+        <v>1.12983</v>
       </c>
       <c r="O7">
-        <v>0.00866982832370258</v>
+        <v>0.01012445526715414</v>
       </c>
       <c r="P7">
-        <v>0.00866982832370258</v>
+        <v>0.01012445526715414</v>
       </c>
       <c r="Q7">
-        <v>0.6040891177509999</v>
+        <v>1.98053022596</v>
       </c>
       <c r="R7">
-        <v>5.436802059759</v>
+        <v>17.82477203364</v>
       </c>
       <c r="S7">
-        <v>9.59300165194669E-05</v>
+        <v>0.0009919753694117061</v>
       </c>
       <c r="T7">
-        <v>9.593001651946692E-05</v>
+        <v>0.0009919753694117061</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>103.0872</v>
       </c>
       <c r="I8">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="J8">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.356035</v>
+        <v>4.851622</v>
       </c>
       <c r="N8">
-        <v>4.068105</v>
+        <v>14.554866</v>
       </c>
       <c r="O8">
-        <v>0.02389128477470859</v>
+        <v>0.1304267807868642</v>
       </c>
       <c r="P8">
-        <v>0.02389128477470859</v>
+        <v>0.1304267807868642</v>
       </c>
       <c r="Q8">
-        <v>46.596617084</v>
+        <v>166.7133758128</v>
       </c>
       <c r="R8">
-        <v>419.369553756</v>
+        <v>1500.4203823152</v>
       </c>
       <c r="S8">
-        <v>0.007399594058673134</v>
+        <v>0.08350065067934735</v>
       </c>
       <c r="T8">
-        <v>0.007399594058673133</v>
+        <v>0.08350065067934735</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>103.0872</v>
       </c>
       <c r="I9">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="J9">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>6.567596</v>
       </c>
       <c r="O9">
-        <v>0.03857036785462446</v>
+        <v>0.05885251047922296</v>
       </c>
       <c r="P9">
-        <v>0.03857036785462446</v>
+        <v>0.05885251047922296</v>
       </c>
       <c r="Q9">
         <v>75.22612026346667</v>
@@ -1013,10 +1013,10 @@
         <v>677.0350823712</v>
       </c>
       <c r="S9">
-        <v>0.01194599066183529</v>
+        <v>0.03767802049150291</v>
       </c>
       <c r="T9">
-        <v>0.01194599066183529</v>
+        <v>0.03767802049150291</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>103.0872</v>
       </c>
       <c r="I10">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="J10">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.022878333333333</v>
+        <v>0.1764276666666667</v>
       </c>
       <c r="N10">
-        <v>3.068635</v>
+        <v>0.5292830000000001</v>
       </c>
       <c r="O10">
-        <v>0.01802156843410824</v>
+        <v>0.004742927747683409</v>
       </c>
       <c r="P10">
-        <v>0.01802156843410824</v>
+        <v>0.004742927747683409</v>
       </c>
       <c r="Q10">
-        <v>35.14855444133333</v>
+        <v>6.062478053066667</v>
       </c>
       <c r="R10">
-        <v>316.336989972</v>
+        <v>54.56230247760001</v>
       </c>
       <c r="S10">
-        <v>0.005581629115825779</v>
+        <v>0.003036474186263</v>
       </c>
       <c r="T10">
-        <v>0.005581629115825779</v>
+        <v>0.003036474186263</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>103.0872</v>
       </c>
       <c r="I11">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="J11">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>51.07351833333333</v>
+        <v>28.76236666666667</v>
       </c>
       <c r="N11">
-        <v>153.220555</v>
+        <v>86.28710000000001</v>
       </c>
       <c r="O11">
-        <v>0.8998381095974417</v>
+        <v>0.7732224176048222</v>
       </c>
       <c r="P11">
-        <v>0.8998381095974416</v>
+        <v>0.7732224176048221</v>
       </c>
       <c r="Q11">
-        <v>1755.008666377333</v>
+        <v>988.3439483466667</v>
       </c>
       <c r="R11">
-        <v>15795.077997396</v>
+        <v>8895.095535120001</v>
       </c>
       <c r="S11">
-        <v>0.2786973070863707</v>
+        <v>0.4950254433969996</v>
       </c>
       <c r="T11">
-        <v>0.2786973070863706</v>
+        <v>0.4950254433969995</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -1169,10 +1169,10 @@
         <v>103.0872</v>
       </c>
       <c r="I12">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="J12">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.624846</v>
+        <v>0.8418256666666667</v>
       </c>
       <c r="N12">
-        <v>1.874538</v>
+        <v>2.525477</v>
       </c>
       <c r="O12">
-        <v>0.01100884101541447</v>
+        <v>0.02263090811425316</v>
       </c>
       <c r="P12">
-        <v>0.01100884101541447</v>
+        <v>0.02263090811425315</v>
       </c>
       <c r="Q12">
-        <v>21.4712081904</v>
+        <v>28.92715028826667</v>
       </c>
       <c r="R12">
-        <v>193.2408737136</v>
+        <v>260.3443525944</v>
       </c>
       <c r="S12">
-        <v>0.003409651483321354</v>
+        <v>0.01448855474009353</v>
       </c>
       <c r="T12">
-        <v>0.003409651483321354</v>
+        <v>0.01448855474009353</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>103.0872</v>
       </c>
       <c r="I13">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="J13">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.492087</v>
+        <v>0.3766100000000001</v>
       </c>
       <c r="N13">
-        <v>1.476261</v>
+        <v>1.12983</v>
       </c>
       <c r="O13">
-        <v>0.00866982832370258</v>
+        <v>0.01012445526715414</v>
       </c>
       <c r="P13">
-        <v>0.00866982832370258</v>
+        <v>0.01012445526715414</v>
       </c>
       <c r="Q13">
-        <v>16.9092903288</v>
+        <v>12.941223464</v>
       </c>
       <c r="R13">
-        <v>152.1836129592</v>
+        <v>116.471011176</v>
       </c>
       <c r="S13">
-        <v>0.002685213907863946</v>
+        <v>0.006481786926588471</v>
       </c>
       <c r="T13">
-        <v>0.002685213907863946</v>
+        <v>0.006481786926588471</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.04110466666666667</v>
+        <v>14.03809866666666</v>
       </c>
       <c r="H14">
-        <v>0.123314</v>
+        <v>42.114296</v>
       </c>
       <c r="I14">
-        <v>0.0003704896088351517</v>
+        <v>0.2615458817988727</v>
       </c>
       <c r="J14">
-        <v>0.0003704896088351518</v>
+        <v>0.2615458817988728</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.356035</v>
+        <v>4.851622</v>
       </c>
       <c r="N14">
-        <v>4.068105</v>
+        <v>14.554866</v>
       </c>
       <c r="O14">
-        <v>0.02389128477470859</v>
+        <v>0.1304267807868642</v>
       </c>
       <c r="P14">
-        <v>0.02389128477470859</v>
+        <v>0.1304267807868642</v>
       </c>
       <c r="Q14">
-        <v>0.05573936666333335</v>
+        <v>68.10754832937066</v>
       </c>
       <c r="R14">
-        <v>0.50165429997</v>
+        <v>612.967934964336</v>
       </c>
       <c r="S14">
-        <v>8.851472750751003E-06</v>
+        <v>0.03411258739108866</v>
       </c>
       <c r="T14">
-        <v>8.851472750751003E-06</v>
+        <v>0.03411258739108867</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.04110466666666667</v>
+        <v>14.03809866666666</v>
       </c>
       <c r="H15">
-        <v>0.123314</v>
+        <v>42.114296</v>
       </c>
       <c r="I15">
-        <v>0.0003704896088351517</v>
+        <v>0.2615458817988727</v>
       </c>
       <c r="J15">
-        <v>0.0003704896088351518</v>
+        <v>0.2615458817988728</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>6.567596</v>
       </c>
       <c r="O15">
-        <v>0.03857036785462446</v>
+        <v>0.05885251047922296</v>
       </c>
       <c r="P15">
-        <v>0.03857036785462446</v>
+        <v>0.05885251047922296</v>
       </c>
       <c r="Q15">
-        <v>0.08998628146044445</v>
+        <v>30.73218688360177</v>
       </c>
       <c r="R15">
-        <v>0.8098765331440001</v>
+        <v>276.589681952416</v>
       </c>
       <c r="S15">
-        <v>1.428992049908773E-05</v>
+        <v>0.01539263174936577</v>
       </c>
       <c r="T15">
-        <v>1.428992049908773E-05</v>
+        <v>0.01539263174936577</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.04110466666666667</v>
+        <v>14.03809866666666</v>
       </c>
       <c r="H16">
-        <v>0.123314</v>
+        <v>42.114296</v>
       </c>
       <c r="I16">
-        <v>0.0003704896088351517</v>
+        <v>0.2615458817988727</v>
       </c>
       <c r="J16">
-        <v>0.0003704896088351518</v>
+        <v>0.2615458817988728</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.022878333333333</v>
+        <v>0.1764276666666667</v>
       </c>
       <c r="N16">
-        <v>3.068635</v>
+        <v>0.5292830000000001</v>
       </c>
       <c r="O16">
-        <v>0.01802156843410824</v>
+        <v>0.004742927747683409</v>
       </c>
       <c r="P16">
-        <v>0.01802156843410824</v>
+        <v>0.004742927747683409</v>
       </c>
       <c r="Q16">
-        <v>0.04204507293222223</v>
+        <v>2.476708992196444</v>
       </c>
       <c r="R16">
-        <v>0.37840565639</v>
+        <v>22.290380929768</v>
       </c>
       <c r="S16">
-        <v>6.67680383974868E-06</v>
+        <v>0.001240493220076199</v>
       </c>
       <c r="T16">
-        <v>6.676803839748681E-06</v>
+        <v>0.001240493220076199</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.04110466666666667</v>
+        <v>14.03809866666666</v>
       </c>
       <c r="H17">
-        <v>0.123314</v>
+        <v>42.114296</v>
       </c>
       <c r="I17">
-        <v>0.0003704896088351517</v>
+        <v>0.2615458817988727</v>
       </c>
       <c r="J17">
-        <v>0.0003704896088351518</v>
+        <v>0.2615458817988728</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>51.07351833333333</v>
+        <v>28.76236666666667</v>
       </c>
       <c r="N17">
-        <v>153.220555</v>
+        <v>86.28710000000001</v>
       </c>
       <c r="O17">
-        <v>0.8998381095974417</v>
+        <v>0.7732224176048222</v>
       </c>
       <c r="P17">
-        <v>0.8998381095974416</v>
+        <v>0.7732224176048221</v>
       </c>
       <c r="Q17">
-        <v>2.099359946585556</v>
+        <v>403.7689411535111</v>
       </c>
       <c r="R17">
-        <v>18.89423951927</v>
+        <v>3633.9204703816</v>
       </c>
       <c r="S17">
-        <v>0.0003333806692397186</v>
+        <v>0.2022331390391094</v>
       </c>
       <c r="T17">
-        <v>0.0003333806692397186</v>
+        <v>0.2022331390391094</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.04110466666666667</v>
+        <v>14.03809866666666</v>
       </c>
       <c r="H18">
-        <v>0.123314</v>
+        <v>42.114296</v>
       </c>
       <c r="I18">
-        <v>0.0003704896088351517</v>
+        <v>0.2615458817988727</v>
       </c>
       <c r="J18">
-        <v>0.0003704896088351518</v>
+        <v>0.2615458817988728</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.624846</v>
+        <v>0.8418256666666667</v>
       </c>
       <c r="N18">
-        <v>1.874538</v>
+        <v>2.525477</v>
       </c>
       <c r="O18">
-        <v>0.01100884101541447</v>
+        <v>0.02263090811425316</v>
       </c>
       <c r="P18">
-        <v>0.01100884101541447</v>
+        <v>0.02263090811425315</v>
       </c>
       <c r="Q18">
-        <v>0.025684086548</v>
+        <v>11.81763176879911</v>
       </c>
       <c r="R18">
-        <v>0.231156778932</v>
+        <v>106.358685919192</v>
       </c>
       <c r="S18">
-        <v>4.078661201529283E-06</v>
+        <v>0.005919020818651606</v>
       </c>
       <c r="T18">
-        <v>4.078661201529284E-06</v>
+        <v>0.005919020818651606</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.04110466666666667</v>
+        <v>14.03809866666666</v>
       </c>
       <c r="H19">
-        <v>0.123314</v>
+        <v>42.114296</v>
       </c>
       <c r="I19">
-        <v>0.0003704896088351517</v>
+        <v>0.2615458817988727</v>
       </c>
       <c r="J19">
-        <v>0.0003704896088351518</v>
+        <v>0.2615458817988728</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.492087</v>
+        <v>0.3766100000000001</v>
       </c>
       <c r="N19">
-        <v>1.476261</v>
+        <v>1.12983</v>
       </c>
       <c r="O19">
-        <v>0.00866982832370258</v>
+        <v>0.01012445526715414</v>
       </c>
       <c r="P19">
-        <v>0.00866982832370258</v>
+        <v>0.01012445526715414</v>
       </c>
       <c r="Q19">
-        <v>0.020227072106</v>
+        <v>5.286888338853333</v>
       </c>
       <c r="R19">
-        <v>0.182043648954</v>
+        <v>47.58199504968</v>
       </c>
       <c r="S19">
-        <v>3.212081304316488E-06</v>
+        <v>0.002648009580581072</v>
       </c>
       <c r="T19">
-        <v>3.212081304316488E-06</v>
+        <v>0.002648009580581073</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>75.23876733333334</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H20">
-        <v>225.716302</v>
+        <v>0.042677</v>
       </c>
       <c r="I20">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="J20">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.356035</v>
+        <v>4.851622</v>
       </c>
       <c r="N20">
-        <v>4.068105</v>
+        <v>14.554866</v>
       </c>
       <c r="O20">
-        <v>0.02389128477470859</v>
+        <v>0.1304267807868642</v>
       </c>
       <c r="P20">
-        <v>0.02389128477470859</v>
+        <v>0.1304267807868642</v>
       </c>
       <c r="Q20">
-        <v>102.0264018608567</v>
+        <v>0.06901755736466667</v>
       </c>
       <c r="R20">
-        <v>918.23761674771</v>
+        <v>0.6211580162820001</v>
       </c>
       <c r="S20">
-        <v>0.01620190486524875</v>
+        <v>3.456837773305034E-05</v>
       </c>
       <c r="T20">
-        <v>0.01620190486524875</v>
+        <v>3.456837773305034E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>75.23876733333334</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H21">
-        <v>225.716302</v>
+        <v>0.042677</v>
       </c>
       <c r="I21">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="J21">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>6.567596</v>
       </c>
       <c r="O21">
-        <v>0.03857036785462446</v>
+        <v>0.05885251047922296</v>
       </c>
       <c r="P21">
-        <v>0.03857036785462446</v>
+        <v>0.05885251047922296</v>
       </c>
       <c r="Q21">
-        <v>164.7126091277769</v>
+        <v>0.03114281049911111</v>
       </c>
       <c r="R21">
-        <v>1482.413482149992</v>
+        <v>0.280285294492</v>
       </c>
       <c r="S21">
-        <v>0.02615654354678363</v>
+        <v>1.559829814483146E-05</v>
       </c>
       <c r="T21">
-        <v>0.02615654354678363</v>
+        <v>1.559829814483146E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>75.23876733333334</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H22">
-        <v>225.716302</v>
+        <v>0.042677</v>
       </c>
       <c r="I22">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="J22">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.022878333333333</v>
+        <v>0.1764276666666667</v>
       </c>
       <c r="N22">
-        <v>3.068635</v>
+        <v>0.5292830000000001</v>
       </c>
       <c r="O22">
-        <v>0.01802156843410824</v>
+        <v>0.004742927747683409</v>
       </c>
       <c r="P22">
-        <v>0.01802156843410824</v>
+        <v>0.004742927747683409</v>
       </c>
       <c r="Q22">
-        <v>76.96010493197446</v>
+        <v>0.002509801176777778</v>
       </c>
       <c r="R22">
-        <v>692.64094438777</v>
+        <v>0.022588210591</v>
       </c>
       <c r="S22">
-        <v>0.01222134933492931</v>
+        <v>1.257067888614164E-06</v>
       </c>
       <c r="T22">
-        <v>0.01222134933492931</v>
+        <v>1.257067888614164E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>75.23876733333334</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H23">
-        <v>225.716302</v>
+        <v>0.042677</v>
       </c>
       <c r="I23">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="J23">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>51.07351833333333</v>
+        <v>28.76236666666667</v>
       </c>
       <c r="N23">
-        <v>153.220555</v>
+        <v>86.28710000000001</v>
       </c>
       <c r="O23">
-        <v>0.8998381095974417</v>
+        <v>0.7732224176048222</v>
       </c>
       <c r="P23">
-        <v>0.8998381095974416</v>
+        <v>0.7732224176048221</v>
       </c>
       <c r="Q23">
-        <v>3842.708562776401</v>
+        <v>0.4091638407444445</v>
       </c>
       <c r="R23">
-        <v>34584.37706498761</v>
+        <v>3.6824745667</v>
       </c>
       <c r="S23">
-        <v>0.6102263475280538</v>
+        <v>0.0002049352475171869</v>
       </c>
       <c r="T23">
-        <v>0.6102263475280538</v>
+        <v>0.0002049352475171869</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
         <v>27</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>75.23876733333334</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H24">
-        <v>225.716302</v>
+        <v>0.042677</v>
       </c>
       <c r="I24">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="J24">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.624846</v>
+        <v>0.8418256666666667</v>
       </c>
       <c r="N24">
-        <v>1.874538</v>
+        <v>2.525477</v>
       </c>
       <c r="O24">
-        <v>0.01100884101541447</v>
+        <v>0.02263090811425316</v>
       </c>
       <c r="P24">
-        <v>0.01100884101541447</v>
+        <v>0.02263090811425315</v>
       </c>
       <c r="Q24">
-        <v>47.01264281316401</v>
+        <v>0.01197553132544445</v>
       </c>
       <c r="R24">
-        <v>423.113785318476</v>
+        <v>0.107779781929</v>
       </c>
       <c r="S24">
-        <v>0.007465659402177097</v>
+        <v>5.998106948709166E-06</v>
       </c>
       <c r="T24">
-        <v>0.007465659402177097</v>
+        <v>5.998106948709165E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>75.23876733333334</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H25">
-        <v>225.716302</v>
+        <v>0.042677</v>
       </c>
       <c r="I25">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="J25">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.492087</v>
+        <v>0.3766100000000001</v>
       </c>
       <c r="N25">
-        <v>1.476261</v>
+        <v>1.12983</v>
       </c>
       <c r="O25">
-        <v>0.00866982832370258</v>
+        <v>0.01012445526715414</v>
       </c>
       <c r="P25">
-        <v>0.00866982832370258</v>
+        <v>0.01012445526715414</v>
       </c>
       <c r="Q25">
-        <v>37.02401930075801</v>
+        <v>0.005357528323333333</v>
       </c>
       <c r="R25">
-        <v>333.216173706822</v>
+        <v>0.04821775491000001</v>
       </c>
       <c r="S25">
-        <v>0.005879454998894322</v>
+        <v>2.683390572893785E-06</v>
       </c>
       <c r="T25">
-        <v>0.005879454998894322</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.077003</v>
-      </c>
-      <c r="H26">
-        <v>0.231009</v>
-      </c>
-      <c r="I26">
-        <v>0.0006940528573187113</v>
-      </c>
-      <c r="J26">
-        <v>0.0006940528573187114</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1.356035</v>
-      </c>
-      <c r="N26">
-        <v>4.068105</v>
-      </c>
-      <c r="O26">
-        <v>0.02389128477470859</v>
-      </c>
-      <c r="P26">
-        <v>0.02389128477470859</v>
-      </c>
-      <c r="Q26">
-        <v>0.104418763105</v>
-      </c>
-      <c r="R26">
-        <v>0.9397688679450001</v>
-      </c>
-      <c r="S26">
-        <v>1.658181446290152E-05</v>
-      </c>
-      <c r="T26">
-        <v>1.658181446290152E-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G27">
-        <v>0.077003</v>
-      </c>
-      <c r="H27">
-        <v>0.231009</v>
-      </c>
-      <c r="I27">
-        <v>0.0006940528573187113</v>
-      </c>
-      <c r="J27">
-        <v>0.0006940528573187114</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>2.189198666666667</v>
-      </c>
-      <c r="N27">
-        <v>6.567596</v>
-      </c>
-      <c r="O27">
-        <v>0.03857036785462446</v>
-      </c>
-      <c r="P27">
-        <v>0.03857036785462446</v>
-      </c>
-      <c r="Q27">
-        <v>0.1685748649293333</v>
-      </c>
-      <c r="R27">
-        <v>1.517173784364</v>
-      </c>
-      <c r="S27">
-        <v>2.676987401733588E-05</v>
-      </c>
-      <c r="T27">
-        <v>2.676987401733588E-05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G28">
-        <v>0.077003</v>
-      </c>
-      <c r="H28">
-        <v>0.231009</v>
-      </c>
-      <c r="I28">
-        <v>0.0006940528573187113</v>
-      </c>
-      <c r="J28">
-        <v>0.0006940528573187114</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>1.022878333333333</v>
-      </c>
-      <c r="N28">
-        <v>3.068635</v>
-      </c>
-      <c r="O28">
-        <v>0.01802156843410824</v>
-      </c>
-      <c r="P28">
-        <v>0.01802156843410824</v>
-      </c>
-      <c r="Q28">
-        <v>0.07876470030166667</v>
-      </c>
-      <c r="R28">
-        <v>0.7088823027150001</v>
-      </c>
-      <c r="S28">
-        <v>1.250792106505752E-05</v>
-      </c>
-      <c r="T28">
-        <v>1.250792106505752E-05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G29">
-        <v>0.077003</v>
-      </c>
-      <c r="H29">
-        <v>0.231009</v>
-      </c>
-      <c r="I29">
-        <v>0.0006940528573187113</v>
-      </c>
-      <c r="J29">
-        <v>0.0006940528573187114</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>51.07351833333333</v>
-      </c>
-      <c r="N29">
-        <v>153.220555</v>
-      </c>
-      <c r="O29">
-        <v>0.8998381095974417</v>
-      </c>
-      <c r="P29">
-        <v>0.8998381095974416</v>
-      </c>
-      <c r="Q29">
-        <v>3.932814132221667</v>
-      </c>
-      <c r="R29">
-        <v>35.395327189995</v>
-      </c>
-      <c r="S29">
-        <v>0.000624535211090372</v>
-      </c>
-      <c r="T29">
-        <v>0.0006245352110903721</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G30">
-        <v>0.077003</v>
-      </c>
-      <c r="H30">
-        <v>0.231009</v>
-      </c>
-      <c r="I30">
-        <v>0.0006940528573187113</v>
-      </c>
-      <c r="J30">
-        <v>0.0006940528573187114</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>0.624846</v>
-      </c>
-      <c r="N30">
-        <v>1.874538</v>
-      </c>
-      <c r="O30">
-        <v>0.01100884101541447</v>
-      </c>
-      <c r="P30">
-        <v>0.01100884101541447</v>
-      </c>
-      <c r="Q30">
-        <v>0.048115016538</v>
-      </c>
-      <c r="R30">
-        <v>0.4330351488420001</v>
-      </c>
-      <c r="S30">
-        <v>7.640717562515838E-06</v>
-      </c>
-      <c r="T30">
-        <v>7.64071756251584E-06</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>0.077003</v>
-      </c>
-      <c r="H31">
-        <v>0.231009</v>
-      </c>
-      <c r="I31">
-        <v>0.0006940528573187113</v>
-      </c>
-      <c r="J31">
-        <v>0.0006940528573187114</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.492087</v>
-      </c>
-      <c r="N31">
-        <v>1.476261</v>
-      </c>
-      <c r="O31">
-        <v>0.00866982832370258</v>
-      </c>
-      <c r="P31">
-        <v>0.00866982832370258</v>
-      </c>
-      <c r="Q31">
-        <v>0.037892175261</v>
-      </c>
-      <c r="R31">
-        <v>0.341029577349</v>
-      </c>
-      <c r="S31">
-        <v>6.017319120528468E-06</v>
-      </c>
-      <c r="T31">
-        <v>6.017319120528469E-06</v>
+        <v>2.683390572893785E-06</v>
       </c>
     </row>
   </sheetData>
